--- a/Emh/SVR/#2.xlsx
+++ b/Emh/SVR/#2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WINTER\Project\HuaShui\Emh\SVR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA53D32-5F14-4E11-8B85-6C658AD99A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5884514C-DD29-48A2-B4DE-A40DD1957442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,11 +125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2#和3#反应器运行数据（输入数据相同）</t>
+    <t>HLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HLR</t>
+    <t>2#反应器运行数据（输入数据相同）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,6 +331,11 @@
     <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,11 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -652,9 +652,9 @@
   <dimension ref="A1:Q559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87:I88"/>
+      <selection pane="bottomLeft" activeCell="R463" sqref="R463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -668,84 +668,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="19" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
@@ -5166,7 +5166,7 @@
       <c r="H87" s="8">
         <v>34</v>
       </c>
-      <c r="I87" s="29"/>
+      <c r="I87" s="18"/>
       <c r="J87">
         <v>930</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="L87" s="1">
         <v>66.511843938690191</v>
       </c>
-      <c r="M87" s="30">
+      <c r="M87" s="19">
         <v>42</v>
       </c>
       <c r="N87">
@@ -5217,7 +5217,7 @@
       <c r="H88" s="8">
         <v>35</v>
       </c>
-      <c r="I88" s="29"/>
+      <c r="I88" s="18"/>
       <c r="J88">
         <v>990</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="L88" s="1">
         <v>62.46271836386876</v>
       </c>
-      <c r="M88" s="30">
+      <c r="M88" s="19">
         <v>30</v>
       </c>
       <c r="N88">
@@ -20614,7 +20614,7 @@
       </c>
     </row>
     <row r="379" spans="1:17">
-      <c r="A379" s="28">
+      <c r="A379" s="17">
         <v>42410</v>
       </c>
       <c r="B379" s="14">
@@ -20667,7 +20667,7 @@
       </c>
     </row>
     <row r="380" spans="1:17">
-      <c r="A380" s="28">
+      <c r="A380" s="17">
         <v>42411</v>
       </c>
       <c r="B380" s="14">
@@ -22622,8 +22622,8 @@
       <c r="O416">
         <v>35</v>
       </c>
-      <c r="P416" s="29"/>
-      <c r="Q416" s="29"/>
+      <c r="P416" s="18"/>
+      <c r="Q416" s="18"/>
     </row>
     <row r="417" spans="1:17">
       <c r="A417" s="6">
@@ -22673,8 +22673,8 @@
       <c r="O417">
         <v>35.5</v>
       </c>
-      <c r="P417" s="29"/>
-      <c r="Q417" s="29"/>
+      <c r="P417" s="18"/>
+      <c r="Q417" s="18"/>
     </row>
     <row r="418" spans="1:17">
       <c r="A418" s="6">
@@ -22724,8 +22724,8 @@
       <c r="O418">
         <v>35</v>
       </c>
-      <c r="P418" s="29"/>
-      <c r="Q418" s="29"/>
+      <c r="P418" s="18"/>
+      <c r="Q418" s="18"/>
     </row>
     <row r="419" spans="1:17">
       <c r="A419" s="6">
@@ -22775,8 +22775,8 @@
       <c r="O419">
         <v>35</v>
       </c>
-      <c r="P419" s="29"/>
-      <c r="Q419" s="29"/>
+      <c r="P419" s="18"/>
+      <c r="Q419" s="18"/>
     </row>
     <row r="420" spans="1:17">
       <c r="A420" s="6">
@@ -22826,8 +22826,8 @@
       <c r="O420">
         <v>36.5</v>
       </c>
-      <c r="P420" s="29"/>
-      <c r="Q420" s="29"/>
+      <c r="P420" s="18"/>
+      <c r="Q420" s="18"/>
     </row>
     <row r="421" spans="1:17">
       <c r="A421" s="6">
@@ -22877,8 +22877,8 @@
       <c r="O421">
         <v>37</v>
       </c>
-      <c r="P421" s="29"/>
-      <c r="Q421" s="29"/>
+      <c r="P421" s="18"/>
+      <c r="Q421" s="18"/>
     </row>
     <row r="422" spans="1:17">
       <c r="A422" s="6">
@@ -22928,8 +22928,8 @@
       <c r="O422">
         <v>37</v>
       </c>
-      <c r="P422" s="29"/>
-      <c r="Q422" s="29"/>
+      <c r="P422" s="18"/>
+      <c r="Q422" s="18"/>
     </row>
     <row r="423" spans="1:17">
       <c r="A423" s="6">
@@ -22979,8 +22979,8 @@
       <c r="O423">
         <v>38.5</v>
       </c>
-      <c r="P423" s="29"/>
-      <c r="Q423" s="29"/>
+      <c r="P423" s="18"/>
+      <c r="Q423" s="18"/>
     </row>
     <row r="424" spans="1:17">
       <c r="A424" s="6">
@@ -23030,8 +23030,8 @@
       <c r="O424">
         <v>37</v>
       </c>
-      <c r="P424" s="29"/>
-      <c r="Q424" s="29"/>
+      <c r="P424" s="18"/>
+      <c r="Q424" s="18"/>
     </row>
     <row r="425" spans="1:17">
       <c r="A425" s="6">
@@ -23081,8 +23081,8 @@
       <c r="O425">
         <v>36.9</v>
       </c>
-      <c r="P425" s="29"/>
-      <c r="Q425" s="29"/>
+      <c r="P425" s="18"/>
+      <c r="Q425" s="18"/>
     </row>
     <row r="426" spans="1:17">
       <c r="A426" s="6">
@@ -23132,8 +23132,8 @@
       <c r="O426">
         <v>36</v>
       </c>
-      <c r="P426" s="29"/>
-      <c r="Q426" s="29"/>
+      <c r="P426" s="18"/>
+      <c r="Q426" s="18"/>
     </row>
     <row r="427" spans="1:17">
       <c r="A427" s="6">
@@ -23183,8 +23183,8 @@
       <c r="O427">
         <v>36.9</v>
       </c>
-      <c r="P427" s="29"/>
-      <c r="Q427" s="29"/>
+      <c r="P427" s="18"/>
+      <c r="Q427" s="18"/>
     </row>
     <row r="428" spans="1:17">
       <c r="A428" s="6">
@@ -23234,8 +23234,8 @@
       <c r="O428">
         <v>39.700000000000003</v>
       </c>
-      <c r="P428" s="29"/>
-      <c r="Q428" s="29"/>
+      <c r="P428" s="18"/>
+      <c r="Q428" s="18"/>
     </row>
     <row r="429" spans="1:17">
       <c r="A429" s="6">
@@ -23285,8 +23285,8 @@
       <c r="O429">
         <v>35.200000000000003</v>
       </c>
-      <c r="P429" s="29"/>
-      <c r="Q429" s="29"/>
+      <c r="P429" s="18"/>
+      <c r="Q429" s="18"/>
     </row>
     <row r="430" spans="1:17">
       <c r="A430" s="6">
@@ -23336,8 +23336,8 @@
       <c r="O430">
         <v>37</v>
       </c>
-      <c r="P430" s="29"/>
-      <c r="Q430" s="29"/>
+      <c r="P430" s="18"/>
+      <c r="Q430" s="18"/>
     </row>
     <row r="431" spans="1:17">
       <c r="A431" s="6">
@@ -23387,8 +23387,8 @@
       <c r="O431">
         <v>38</v>
       </c>
-      <c r="P431" s="29"/>
-      <c r="Q431" s="29"/>
+      <c r="P431" s="18"/>
+      <c r="Q431" s="18"/>
     </row>
     <row r="432" spans="1:17">
       <c r="A432" s="6">
@@ -23438,8 +23438,8 @@
       <c r="O432">
         <v>38</v>
       </c>
-      <c r="P432" s="29"/>
-      <c r="Q432" s="29"/>
+      <c r="P432" s="18"/>
+      <c r="Q432" s="18"/>
     </row>
     <row r="433" spans="1:17">
       <c r="A433" s="6">
@@ -23489,8 +23489,8 @@
       <c r="O433">
         <v>37</v>
       </c>
-      <c r="P433" s="29"/>
-      <c r="Q433" s="29"/>
+      <c r="P433" s="18"/>
+      <c r="Q433" s="18"/>
     </row>
     <row r="434" spans="1:17">
       <c r="A434" s="6">
@@ -23540,8 +23540,8 @@
       <c r="O434">
         <v>37</v>
       </c>
-      <c r="P434" s="29"/>
-      <c r="Q434" s="29"/>
+      <c r="P434" s="18"/>
+      <c r="Q434" s="18"/>
     </row>
     <row r="435" spans="1:17">
       <c r="A435" s="6">
@@ -23591,8 +23591,8 @@
       <c r="O435">
         <v>36</v>
       </c>
-      <c r="P435" s="29"/>
-      <c r="Q435" s="29"/>
+      <c r="P435" s="18"/>
+      <c r="Q435" s="18"/>
     </row>
     <row r="436" spans="1:17">
       <c r="A436" s="6">
@@ -23642,8 +23642,8 @@
       <c r="O436">
         <v>37</v>
       </c>
-      <c r="P436" s="29"/>
-      <c r="Q436" s="29"/>
+      <c r="P436" s="18"/>
+      <c r="Q436" s="18"/>
     </row>
     <row r="437" spans="1:17">
       <c r="A437" s="6">
@@ -23693,8 +23693,8 @@
       <c r="O437">
         <v>38</v>
       </c>
-      <c r="P437" s="29"/>
-      <c r="Q437" s="29"/>
+      <c r="P437" s="18"/>
+      <c r="Q437" s="18"/>
     </row>
     <row r="438" spans="1:17">
       <c r="A438" s="6">
@@ -23744,8 +23744,8 @@
       <c r="O438">
         <v>37</v>
       </c>
-      <c r="P438" s="29"/>
-      <c r="Q438" s="29"/>
+      <c r="P438" s="18"/>
+      <c r="Q438" s="18"/>
     </row>
     <row r="439" spans="1:17">
       <c r="A439" s="6">
@@ -23795,8 +23795,8 @@
       <c r="O439">
         <v>37</v>
       </c>
-      <c r="P439" s="29"/>
-      <c r="Q439" s="29"/>
+      <c r="P439" s="18"/>
+      <c r="Q439" s="18"/>
     </row>
     <row r="440" spans="1:17">
       <c r="A440" s="6">
@@ -23846,8 +23846,8 @@
       <c r="O440">
         <v>37.5</v>
       </c>
-      <c r="P440" s="29"/>
-      <c r="Q440" s="29"/>
+      <c r="P440" s="18"/>
+      <c r="Q440" s="18"/>
     </row>
     <row r="441" spans="1:17">
       <c r="A441" s="6">
@@ -23897,8 +23897,8 @@
       <c r="O441">
         <v>37.799999999999997</v>
       </c>
-      <c r="P441" s="29"/>
-      <c r="Q441" s="29"/>
+      <c r="P441" s="18"/>
+      <c r="Q441" s="18"/>
     </row>
     <row r="442" spans="1:17">
       <c r="A442" s="6">
@@ -23948,8 +23948,8 @@
       <c r="O442">
         <v>38</v>
       </c>
-      <c r="P442" s="29"/>
-      <c r="Q442" s="29"/>
+      <c r="P442" s="18"/>
+      <c r="Q442" s="18"/>
     </row>
     <row r="443" spans="1:17">
       <c r="A443" s="6">
@@ -23999,8 +23999,8 @@
       <c r="O443">
         <v>38</v>
       </c>
-      <c r="P443" s="29"/>
-      <c r="Q443" s="29"/>
+      <c r="P443" s="18"/>
+      <c r="Q443" s="18"/>
     </row>
     <row r="444" spans="1:17">
       <c r="A444" s="6">
@@ -24050,8 +24050,8 @@
       <c r="O444">
         <v>38.5</v>
       </c>
-      <c r="P444" s="29"/>
-      <c r="Q444" s="29"/>
+      <c r="P444" s="18"/>
+      <c r="Q444" s="18"/>
     </row>
     <row r="445" spans="1:17">
       <c r="A445" s="6">
@@ -24101,8 +24101,8 @@
       <c r="O445">
         <v>38.5</v>
       </c>
-      <c r="P445" s="29"/>
-      <c r="Q445" s="29"/>
+      <c r="P445" s="18"/>
+      <c r="Q445" s="18"/>
     </row>
     <row r="446" spans="1:17">
       <c r="A446" s="6">
@@ -24152,8 +24152,8 @@
       <c r="O446">
         <v>37.799999999999997</v>
       </c>
-      <c r="P446" s="29"/>
-      <c r="Q446" s="29"/>
+      <c r="P446" s="18"/>
+      <c r="Q446" s="18"/>
     </row>
     <row r="447" spans="1:17">
       <c r="A447" s="6">
@@ -24203,8 +24203,8 @@
       <c r="O447">
         <v>38.799999999999997</v>
       </c>
-      <c r="P447" s="29"/>
-      <c r="Q447" s="29"/>
+      <c r="P447" s="18"/>
+      <c r="Q447" s="18"/>
     </row>
     <row r="448" spans="1:17">
       <c r="A448" s="6">
@@ -24254,8 +24254,8 @@
       <c r="O448">
         <v>38.5</v>
       </c>
-      <c r="P448" s="29"/>
-      <c r="Q448" s="29"/>
+      <c r="P448" s="18"/>
+      <c r="Q448" s="18"/>
     </row>
     <row r="449" spans="1:17">
       <c r="A449" s="6">
@@ -24305,8 +24305,8 @@
       <c r="O449">
         <v>39</v>
       </c>
-      <c r="P449" s="29"/>
-      <c r="Q449" s="29"/>
+      <c r="P449" s="18"/>
+      <c r="Q449" s="18"/>
     </row>
     <row r="450" spans="1:17">
       <c r="A450" s="6">
@@ -24356,8 +24356,8 @@
       <c r="O450">
         <v>38</v>
       </c>
-      <c r="P450" s="29"/>
-      <c r="Q450" s="29"/>
+      <c r="P450" s="18"/>
+      <c r="Q450" s="18"/>
     </row>
     <row r="451" spans="1:17">
       <c r="A451" s="6">
@@ -24407,8 +24407,8 @@
       <c r="O451">
         <v>36.9</v>
       </c>
-      <c r="P451" s="29"/>
-      <c r="Q451" s="29"/>
+      <c r="P451" s="18"/>
+      <c r="Q451" s="18"/>
     </row>
     <row r="452" spans="1:17">
       <c r="A452" s="6">
@@ -24458,8 +24458,8 @@
       <c r="O452">
         <v>39</v>
       </c>
-      <c r="P452" s="29"/>
-      <c r="Q452" s="29"/>
+      <c r="P452" s="18"/>
+      <c r="Q452" s="18"/>
     </row>
     <row r="453" spans="1:17">
       <c r="A453" s="6">
@@ -24509,8 +24509,8 @@
       <c r="O453">
         <v>39.5</v>
       </c>
-      <c r="P453" s="29"/>
-      <c r="Q453" s="29"/>
+      <c r="P453" s="18"/>
+      <c r="Q453" s="18"/>
     </row>
     <row r="454" spans="1:17">
       <c r="A454" s="6">
@@ -24560,8 +24560,8 @@
       <c r="O454">
         <v>37.200000000000003</v>
       </c>
-      <c r="P454" s="29"/>
-      <c r="Q454" s="29"/>
+      <c r="P454" s="18"/>
+      <c r="Q454" s="18"/>
     </row>
     <row r="455" spans="1:17">
       <c r="A455" s="6">
@@ -24611,8 +24611,8 @@
       <c r="O455">
         <v>37.200000000000003</v>
       </c>
-      <c r="P455" s="29"/>
-      <c r="Q455" s="29"/>
+      <c r="P455" s="18"/>
+      <c r="Q455" s="18"/>
     </row>
     <row r="456" spans="1:17">
       <c r="A456" s="6">
@@ -24662,8 +24662,8 @@
       <c r="O456">
         <v>37</v>
       </c>
-      <c r="P456" s="29"/>
-      <c r="Q456" s="29"/>
+      <c r="P456" s="18"/>
+      <c r="Q456" s="18"/>
     </row>
     <row r="457" spans="1:17">
       <c r="A457" s="6">
@@ -24713,8 +24713,8 @@
       <c r="O457">
         <v>37</v>
       </c>
-      <c r="P457" s="29"/>
-      <c r="Q457" s="29"/>
+      <c r="P457" s="18"/>
+      <c r="Q457" s="18"/>
     </row>
     <row r="458" spans="1:17">
       <c r="A458" s="6">
@@ -24764,8 +24764,8 @@
       <c r="O458">
         <v>37</v>
       </c>
-      <c r="P458" s="29"/>
-      <c r="Q458" s="29"/>
+      <c r="P458" s="18"/>
+      <c r="Q458" s="18"/>
     </row>
     <row r="459" spans="1:17">
       <c r="A459" s="6">
@@ -24815,8 +24815,8 @@
       <c r="O459">
         <v>37.1</v>
       </c>
-      <c r="P459" s="29"/>
-      <c r="Q459" s="29"/>
+      <c r="P459" s="18"/>
+      <c r="Q459" s="18"/>
     </row>
     <row r="460" spans="1:17">
       <c r="A460" s="6">
@@ -24866,8 +24866,8 @@
       <c r="O460">
         <v>37</v>
       </c>
-      <c r="P460" s="29"/>
-      <c r="Q460" s="29"/>
+      <c r="P460" s="18"/>
+      <c r="Q460" s="18"/>
     </row>
     <row r="461" spans="1:17">
       <c r="A461" s="6">
@@ -24917,8 +24917,8 @@
       <c r="O461">
         <v>36.5</v>
       </c>
-      <c r="P461" s="29"/>
-      <c r="Q461" s="29"/>
+      <c r="P461" s="18"/>
+      <c r="Q461" s="18"/>
     </row>
     <row r="462" spans="1:17">
       <c r="A462" s="6">
@@ -24968,8 +24968,8 @@
       <c r="O462">
         <v>36.1</v>
       </c>
-      <c r="P462" s="29"/>
-      <c r="Q462" s="29"/>
+      <c r="P462" s="18"/>
+      <c r="Q462" s="18"/>
     </row>
     <row r="463" spans="1:17">
       <c r="A463" s="6">
@@ -24998,7 +24998,7 @@
       <c r="H463">
         <v>36.6</v>
       </c>
-      <c r="I463" s="29"/>
+      <c r="I463" s="18"/>
       <c r="J463">
         <v>768</v>
       </c>
@@ -25014,9 +25014,11 @@
       <c r="N463">
         <v>7.23</v>
       </c>
-      <c r="O463" s="29"/>
-      <c r="P463" s="29"/>
-      <c r="Q463" s="29"/>
+      <c r="O463" s="18">
+        <v>37</v>
+      </c>
+      <c r="P463" s="18"/>
+      <c r="Q463" s="18"/>
     </row>
     <row r="464" spans="1:17">
       <c r="A464" s="6">
@@ -25045,7 +25047,7 @@
       <c r="H464">
         <v>37.6</v>
       </c>
-      <c r="I464" s="29"/>
+      <c r="I464" s="18"/>
       <c r="J464">
         <v>864</v>
       </c>
@@ -25061,9 +25063,11 @@
       <c r="N464">
         <v>7.01</v>
       </c>
-      <c r="O464" s="29"/>
-      <c r="P464" s="29"/>
-      <c r="Q464" s="29"/>
+      <c r="O464" s="18">
+        <v>37.1</v>
+      </c>
+      <c r="P464" s="18"/>
+      <c r="Q464" s="18"/>
     </row>
     <row r="465" spans="1:17">
       <c r="A465" s="6">
@@ -25092,7 +25096,7 @@
       <c r="H465">
         <v>37.700000000000003</v>
       </c>
-      <c r="I465" s="29"/>
+      <c r="I465" s="18"/>
       <c r="J465">
         <v>1044</v>
       </c>
@@ -25111,8 +25115,8 @@
       <c r="O465">
         <v>37.5</v>
       </c>
-      <c r="P465" s="29"/>
-      <c r="Q465" s="29"/>
+      <c r="P465" s="18"/>
+      <c r="Q465" s="18"/>
     </row>
     <row r="466" spans="1:17">
       <c r="A466" s="6">
@@ -25141,7 +25145,7 @@
       <c r="H466">
         <v>38</v>
       </c>
-      <c r="I466" s="29"/>
+      <c r="I466" s="18"/>
       <c r="J466">
         <v>1098</v>
       </c>
@@ -25160,8 +25164,8 @@
       <c r="O466">
         <v>37.5</v>
       </c>
-      <c r="P466" s="29"/>
-      <c r="Q466" s="29"/>
+      <c r="P466" s="18"/>
+      <c r="Q466" s="18"/>
     </row>
     <row r="467" spans="1:17">
       <c r="A467" s="6">
@@ -25190,7 +25194,7 @@
       <c r="H467">
         <v>38</v>
       </c>
-      <c r="I467" s="29"/>
+      <c r="I467" s="18"/>
       <c r="J467">
         <v>948</v>
       </c>
@@ -25209,8 +25213,8 @@
       <c r="O467">
         <v>37.5</v>
       </c>
-      <c r="P467" s="29"/>
-      <c r="Q467" s="29"/>
+      <c r="P467" s="18"/>
+      <c r="Q467" s="18"/>
     </row>
     <row r="468" spans="1:17">
       <c r="A468" s="6">
@@ -25239,7 +25243,7 @@
       <c r="H468">
         <v>37</v>
       </c>
-      <c r="I468" s="30">
+      <c r="I468" s="19">
         <v>376</v>
       </c>
       <c r="J468">
@@ -25257,9 +25261,11 @@
       <c r="N468">
         <v>7.08</v>
       </c>
-      <c r="O468" s="29"/>
-      <c r="P468" s="29"/>
-      <c r="Q468" s="29"/>
+      <c r="O468" s="18">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="P468" s="18"/>
+      <c r="Q468" s="18"/>
     </row>
     <row r="469" spans="1:17">
       <c r="A469" s="6">
@@ -25309,8 +25315,8 @@
       <c r="O469">
         <v>37.799999999999997</v>
       </c>
-      <c r="P469" s="29"/>
-      <c r="Q469" s="29"/>
+      <c r="P469" s="18"/>
+      <c r="Q469" s="18"/>
     </row>
     <row r="470" spans="1:17">
       <c r="A470" s="6">
@@ -25360,8 +25366,8 @@
       <c r="O470">
         <v>38</v>
       </c>
-      <c r="P470" s="29"/>
-      <c r="Q470" s="29"/>
+      <c r="P470" s="18"/>
+      <c r="Q470" s="18"/>
     </row>
     <row r="471" spans="1:17">
       <c r="A471" s="6">
@@ -25411,8 +25417,8 @@
       <c r="O471">
         <v>37.9</v>
       </c>
-      <c r="P471" s="29"/>
-      <c r="Q471" s="29"/>
+      <c r="P471" s="18"/>
+      <c r="Q471" s="18"/>
     </row>
     <row r="472" spans="1:17">
       <c r="A472" s="6">
@@ -25462,8 +25468,8 @@
       <c r="O472">
         <v>38</v>
       </c>
-      <c r="P472" s="29"/>
-      <c r="Q472" s="29"/>
+      <c r="P472" s="18"/>
+      <c r="Q472" s="18"/>
     </row>
     <row r="473" spans="1:17">
       <c r="A473" s="6">
@@ -25513,8 +25519,8 @@
       <c r="O473">
         <v>38.9</v>
       </c>
-      <c r="P473" s="29"/>
-      <c r="Q473" s="29"/>
+      <c r="P473" s="18"/>
+      <c r="Q473" s="18"/>
     </row>
     <row r="474" spans="1:17">
       <c r="A474" s="6">
@@ -25564,8 +25570,8 @@
       <c r="O474">
         <v>38.1</v>
       </c>
-      <c r="P474" s="29"/>
-      <c r="Q474" s="29"/>
+      <c r="P474" s="18"/>
+      <c r="Q474" s="18"/>
     </row>
     <row r="475" spans="1:17">
       <c r="A475" s="6">
@@ -25615,8 +25621,8 @@
       <c r="O475">
         <v>38</v>
       </c>
-      <c r="P475" s="29"/>
-      <c r="Q475" s="29"/>
+      <c r="P475" s="18"/>
+      <c r="Q475" s="18"/>
     </row>
     <row r="476" spans="1:17">
       <c r="A476" s="6">
@@ -25666,8 +25672,8 @@
       <c r="O476">
         <v>38.5</v>
       </c>
-      <c r="P476" s="29"/>
-      <c r="Q476" s="29"/>
+      <c r="P476" s="18"/>
+      <c r="Q476" s="18"/>
     </row>
     <row r="477" spans="1:17">
       <c r="A477" s="6">
@@ -25717,8 +25723,8 @@
       <c r="O477">
         <v>38.5</v>
       </c>
-      <c r="P477" s="29"/>
-      <c r="Q477" s="29"/>
+      <c r="P477" s="18"/>
+      <c r="Q477" s="18"/>
     </row>
     <row r="478" spans="1:17">
       <c r="A478" s="6">
@@ -25768,8 +25774,8 @@
       <c r="O478">
         <v>36.9</v>
       </c>
-      <c r="P478" s="29"/>
-      <c r="Q478" s="29"/>
+      <c r="P478" s="18"/>
+      <c r="Q478" s="18"/>
     </row>
     <row r="479" spans="1:17">
       <c r="A479" s="6">
@@ -25819,8 +25825,8 @@
       <c r="O479">
         <v>38.9</v>
       </c>
-      <c r="P479" s="29"/>
-      <c r="Q479" s="29"/>
+      <c r="P479" s="18"/>
+      <c r="Q479" s="18"/>
     </row>
     <row r="480" spans="1:17">
       <c r="A480" s="6">
@@ -25870,8 +25876,8 @@
       <c r="O480">
         <v>37.9</v>
       </c>
-      <c r="P480" s="29"/>
-      <c r="Q480" s="29"/>
+      <c r="P480" s="18"/>
+      <c r="Q480" s="18"/>
     </row>
     <row r="481" spans="1:17">
       <c r="A481" s="6">
@@ -25921,8 +25927,8 @@
       <c r="O481">
         <v>38</v>
       </c>
-      <c r="P481" s="29"/>
-      <c r="Q481" s="29"/>
+      <c r="P481" s="18"/>
+      <c r="Q481" s="18"/>
     </row>
     <row r="482" spans="1:17">
       <c r="A482" s="6">
@@ -25972,8 +25978,8 @@
       <c r="O482">
         <v>37.799999999999997</v>
       </c>
-      <c r="P482" s="29"/>
-      <c r="Q482" s="29"/>
+      <c r="P482" s="18"/>
+      <c r="Q482" s="18"/>
     </row>
     <row r="483" spans="1:17">
       <c r="A483" s="6">
@@ -26023,8 +26029,8 @@
       <c r="O483">
         <v>37.799999999999997</v>
       </c>
-      <c r="P483" s="29"/>
-      <c r="Q483" s="29"/>
+      <c r="P483" s="18"/>
+      <c r="Q483" s="18"/>
     </row>
     <row r="484" spans="1:17">
       <c r="A484" s="6">
@@ -26074,8 +26080,8 @@
       <c r="O484">
         <v>37.799999999999997</v>
       </c>
-      <c r="P484" s="29"/>
-      <c r="Q484" s="29"/>
+      <c r="P484" s="18"/>
+      <c r="Q484" s="18"/>
     </row>
     <row r="485" spans="1:17">
       <c r="A485" s="6">
@@ -26125,8 +26131,8 @@
       <c r="O485">
         <v>38.200000000000003</v>
       </c>
-      <c r="P485" s="29"/>
-      <c r="Q485" s="29"/>
+      <c r="P485" s="18"/>
+      <c r="Q485" s="18"/>
     </row>
     <row r="486" spans="1:17">
       <c r="A486" s="6">
@@ -26176,8 +26182,8 @@
       <c r="O486">
         <v>38</v>
       </c>
-      <c r="P486" s="29"/>
-      <c r="Q486" s="29"/>
+      <c r="P486" s="18"/>
+      <c r="Q486" s="18"/>
     </row>
     <row r="487" spans="1:17">
       <c r="A487" s="6">
@@ -26227,8 +26233,8 @@
       <c r="O487">
         <v>38</v>
       </c>
-      <c r="P487" s="29"/>
-      <c r="Q487" s="29"/>
+      <c r="P487" s="18"/>
+      <c r="Q487" s="18"/>
     </row>
     <row r="488" spans="1:17">
       <c r="A488" s="6">
@@ -26278,8 +26284,8 @@
       <c r="O488">
         <v>38.5</v>
       </c>
-      <c r="P488" s="29"/>
-      <c r="Q488" s="29"/>
+      <c r="P488" s="18"/>
+      <c r="Q488" s="18"/>
     </row>
     <row r="489" spans="1:17">
       <c r="A489" s="6">
@@ -26329,8 +26335,8 @@
       <c r="O489">
         <v>39</v>
       </c>
-      <c r="P489" s="29"/>
-      <c r="Q489" s="29"/>
+      <c r="P489" s="18"/>
+      <c r="Q489" s="18"/>
     </row>
     <row r="490" spans="1:17">
       <c r="A490" s="6">
@@ -26380,8 +26386,8 @@
       <c r="O490">
         <v>38.5</v>
       </c>
-      <c r="P490" s="29"/>
-      <c r="Q490" s="29"/>
+      <c r="P490" s="18"/>
+      <c r="Q490" s="18"/>
     </row>
     <row r="491" spans="1:17">
       <c r="A491" s="6">
@@ -26431,8 +26437,8 @@
       <c r="O491">
         <v>39</v>
       </c>
-      <c r="P491" s="29"/>
-      <c r="Q491" s="29"/>
+      <c r="P491" s="18"/>
+      <c r="Q491" s="18"/>
     </row>
     <row r="492" spans="1:17">
       <c r="A492" s="6">
@@ -26482,8 +26488,8 @@
       <c r="O492">
         <v>40</v>
       </c>
-      <c r="P492" s="29"/>
-      <c r="Q492" s="29"/>
+      <c r="P492" s="18"/>
+      <c r="Q492" s="18"/>
     </row>
     <row r="493" spans="1:17">
       <c r="A493" s="6">
@@ -26533,8 +26539,8 @@
       <c r="O493">
         <v>40</v>
       </c>
-      <c r="P493" s="29"/>
-      <c r="Q493" s="29"/>
+      <c r="P493" s="18"/>
+      <c r="Q493" s="18"/>
     </row>
     <row r="494" spans="1:17">
       <c r="A494" s="6">
@@ -26584,8 +26590,8 @@
       <c r="O494">
         <v>41</v>
       </c>
-      <c r="P494" s="29"/>
-      <c r="Q494" s="29"/>
+      <c r="P494" s="18"/>
+      <c r="Q494" s="18"/>
     </row>
     <row r="495" spans="1:17">
       <c r="A495" s="6">
@@ -26635,8 +26641,8 @@
       <c r="O495">
         <v>41</v>
       </c>
-      <c r="P495" s="29"/>
-      <c r="Q495" s="29"/>
+      <c r="P495" s="18"/>
+      <c r="Q495" s="18"/>
     </row>
     <row r="496" spans="1:17">
       <c r="A496" s="6">
@@ -26686,8 +26692,8 @@
       <c r="O496">
         <v>39</v>
       </c>
-      <c r="P496" s="29"/>
-      <c r="Q496" s="29"/>
+      <c r="P496" s="18"/>
+      <c r="Q496" s="18"/>
     </row>
     <row r="497" spans="1:17">
       <c r="A497" s="6">
@@ -26737,8 +26743,8 @@
       <c r="O497">
         <v>42</v>
       </c>
-      <c r="P497" s="29"/>
-      <c r="Q497" s="29"/>
+      <c r="P497" s="18"/>
+      <c r="Q497" s="18"/>
     </row>
     <row r="498" spans="1:17">
       <c r="A498" s="6">
@@ -26788,8 +26794,8 @@
       <c r="O498">
         <v>39</v>
       </c>
-      <c r="P498" s="29"/>
-      <c r="Q498" s="29"/>
+      <c r="P498" s="18"/>
+      <c r="Q498" s="18"/>
     </row>
     <row r="499" spans="1:17">
       <c r="A499" s="6">
@@ -26839,8 +26845,8 @@
       <c r="O499">
         <v>41</v>
       </c>
-      <c r="P499" s="29"/>
-      <c r="Q499" s="29"/>
+      <c r="P499" s="18"/>
+      <c r="Q499" s="18"/>
     </row>
     <row r="500" spans="1:17">
       <c r="A500" s="6">
@@ -26890,8 +26896,8 @@
       <c r="O500">
         <v>40</v>
       </c>
-      <c r="P500" s="29"/>
-      <c r="Q500" s="29"/>
+      <c r="P500" s="18"/>
+      <c r="Q500" s="18"/>
     </row>
     <row r="501" spans="1:17">
       <c r="A501" s="6">
@@ -26941,8 +26947,8 @@
       <c r="O501">
         <v>39.5</v>
       </c>
-      <c r="P501" s="29"/>
-      <c r="Q501" s="29"/>
+      <c r="P501" s="18"/>
+      <c r="Q501" s="18"/>
     </row>
     <row r="502" spans="1:17">
       <c r="A502" s="6">
@@ -26992,8 +26998,8 @@
       <c r="O502">
         <v>39.5</v>
       </c>
-      <c r="P502" s="29"/>
-      <c r="Q502" s="29"/>
+      <c r="P502" s="18"/>
+      <c r="Q502" s="18"/>
     </row>
     <row r="503" spans="1:17">
       <c r="A503" s="6">
@@ -27043,8 +27049,8 @@
       <c r="O503">
         <v>39.5</v>
       </c>
-      <c r="P503" s="29"/>
-      <c r="Q503" s="29"/>
+      <c r="P503" s="18"/>
+      <c r="Q503" s="18"/>
     </row>
     <row r="504" spans="1:17">
       <c r="A504" s="6">
@@ -27094,8 +27100,8 @@
       <c r="O504">
         <v>39.5</v>
       </c>
-      <c r="P504" s="29"/>
-      <c r="Q504" s="29"/>
+      <c r="P504" s="18"/>
+      <c r="Q504" s="18"/>
     </row>
     <row r="505" spans="1:17">
       <c r="A505" s="6">
@@ -27145,8 +27151,8 @@
       <c r="O505">
         <v>39</v>
       </c>
-      <c r="P505" s="29"/>
-      <c r="Q505" s="29"/>
+      <c r="P505" s="18"/>
+      <c r="Q505" s="18"/>
     </row>
     <row r="506" spans="1:17">
       <c r="A506" s="6">
@@ -27196,8 +27202,8 @@
       <c r="O506">
         <v>39.299999999999997</v>
       </c>
-      <c r="P506" s="29"/>
-      <c r="Q506" s="29"/>
+      <c r="P506" s="18"/>
+      <c r="Q506" s="18"/>
     </row>
     <row r="507" spans="1:17">
       <c r="A507" s="6">
@@ -27247,8 +27253,8 @@
       <c r="O507">
         <v>39</v>
       </c>
-      <c r="P507" s="29"/>
-      <c r="Q507" s="29"/>
+      <c r="P507" s="18"/>
+      <c r="Q507" s="18"/>
     </row>
     <row r="508" spans="1:17">
       <c r="A508" s="6">
@@ -27298,8 +27304,8 @@
       <c r="O508">
         <v>39</v>
       </c>
-      <c r="P508" s="29"/>
-      <c r="Q508" s="29"/>
+      <c r="P508" s="18"/>
+      <c r="Q508" s="18"/>
     </row>
     <row r="509" spans="1:17">
       <c r="A509" s="6">
@@ -27349,8 +27355,8 @@
       <c r="O509">
         <v>39</v>
       </c>
-      <c r="P509" s="29"/>
-      <c r="Q509" s="29"/>
+      <c r="P509" s="18"/>
+      <c r="Q509" s="18"/>
     </row>
     <row r="510" spans="1:17">
       <c r="A510" s="6">
@@ -27400,8 +27406,8 @@
       <c r="O510">
         <v>38.5</v>
       </c>
-      <c r="P510" s="29"/>
-      <c r="Q510" s="29"/>
+      <c r="P510" s="18"/>
+      <c r="Q510" s="18"/>
     </row>
     <row r="511" spans="1:17">
       <c r="A511" s="6">
@@ -27451,8 +27457,8 @@
       <c r="O511">
         <v>39.799999999999997</v>
       </c>
-      <c r="P511" s="29"/>
-      <c r="Q511" s="29"/>
+      <c r="P511" s="18"/>
+      <c r="Q511" s="18"/>
     </row>
     <row r="512" spans="1:17">
       <c r="A512" s="6">
@@ -27502,8 +27508,8 @@
       <c r="O512">
         <v>39.200000000000003</v>
       </c>
-      <c r="P512" s="29"/>
-      <c r="Q512" s="29"/>
+      <c r="P512" s="18"/>
+      <c r="Q512" s="18"/>
     </row>
     <row r="513" spans="1:17">
       <c r="A513" s="6">
@@ -27553,8 +27559,8 @@
       <c r="O513">
         <v>39</v>
       </c>
-      <c r="P513" s="29"/>
-      <c r="Q513" s="29"/>
+      <c r="P513" s="18"/>
+      <c r="Q513" s="18"/>
     </row>
     <row r="514" spans="1:17">
       <c r="A514" s="6">
@@ -27604,8 +27610,8 @@
       <c r="O514">
         <v>39</v>
       </c>
-      <c r="P514" s="29"/>
-      <c r="Q514" s="29"/>
+      <c r="P514" s="18"/>
+      <c r="Q514" s="18"/>
     </row>
     <row r="515" spans="1:17">
       <c r="A515" s="6">
@@ -27655,8 +27661,8 @@
       <c r="O515">
         <v>39.5</v>
       </c>
-      <c r="P515" s="29"/>
-      <c r="Q515" s="29"/>
+      <c r="P515" s="18"/>
+      <c r="Q515" s="18"/>
     </row>
     <row r="516" spans="1:17">
       <c r="A516" s="6">
@@ -27706,8 +27712,8 @@
       <c r="O516">
         <v>39.5</v>
       </c>
-      <c r="P516" s="29"/>
-      <c r="Q516" s="29"/>
+      <c r="P516" s="18"/>
+      <c r="Q516" s="18"/>
     </row>
     <row r="517" spans="1:17">
       <c r="A517" s="6">
@@ -27757,8 +27763,8 @@
       <c r="O517">
         <v>40</v>
       </c>
-      <c r="P517" s="29"/>
-      <c r="Q517" s="29"/>
+      <c r="P517" s="18"/>
+      <c r="Q517" s="18"/>
     </row>
     <row r="518" spans="1:17">
       <c r="A518" s="6">
@@ -27808,8 +27814,8 @@
       <c r="O518">
         <v>39.5</v>
       </c>
-      <c r="P518" s="29"/>
-      <c r="Q518" s="29"/>
+      <c r="P518" s="18"/>
+      <c r="Q518" s="18"/>
     </row>
     <row r="519" spans="1:17">
       <c r="A519" s="6">
@@ -27859,8 +27865,8 @@
       <c r="O519">
         <v>40</v>
       </c>
-      <c r="P519" s="29"/>
-      <c r="Q519" s="29"/>
+      <c r="P519" s="18"/>
+      <c r="Q519" s="18"/>
     </row>
     <row r="520" spans="1:17">
       <c r="A520" s="6">
@@ -27910,8 +27916,8 @@
       <c r="O520">
         <v>40.799999999999997</v>
       </c>
-      <c r="P520" s="29"/>
-      <c r="Q520" s="29"/>
+      <c r="P520" s="18"/>
+      <c r="Q520" s="18"/>
     </row>
     <row r="521" spans="1:17">
       <c r="A521" s="6">
@@ -27961,8 +27967,8 @@
       <c r="O521">
         <v>40</v>
       </c>
-      <c r="P521" s="29"/>
-      <c r="Q521" s="29"/>
+      <c r="P521" s="18"/>
+      <c r="Q521" s="18"/>
     </row>
     <row r="522" spans="1:17">
       <c r="A522" s="6">
@@ -28012,8 +28018,8 @@
       <c r="O522">
         <v>40.5</v>
       </c>
-      <c r="P522" s="29"/>
-      <c r="Q522" s="29"/>
+      <c r="P522" s="18"/>
+      <c r="Q522" s="18"/>
     </row>
     <row r="523" spans="1:17">
       <c r="A523" s="6">
@@ -28063,8 +28069,8 @@
       <c r="O523">
         <v>40</v>
       </c>
-      <c r="P523" s="29"/>
-      <c r="Q523" s="29"/>
+      <c r="P523" s="18"/>
+      <c r="Q523" s="18"/>
     </row>
     <row r="524" spans="1:17">
       <c r="A524" s="6">
@@ -28114,8 +28120,8 @@
       <c r="O524">
         <v>39.799999999999997</v>
       </c>
-      <c r="P524" s="29"/>
-      <c r="Q524" s="29"/>
+      <c r="P524" s="18"/>
+      <c r="Q524" s="18"/>
     </row>
     <row r="525" spans="1:17">
       <c r="A525" s="6">
@@ -28165,8 +28171,8 @@
       <c r="O525">
         <v>39.799999999999997</v>
       </c>
-      <c r="P525" s="29"/>
-      <c r="Q525" s="29"/>
+      <c r="P525" s="18"/>
+      <c r="Q525" s="18"/>
     </row>
     <row r="526" spans="1:17">
       <c r="A526" s="6">
@@ -28216,8 +28222,8 @@
       <c r="O526">
         <v>37.5</v>
       </c>
-      <c r="P526" s="29"/>
-      <c r="Q526" s="29"/>
+      <c r="P526" s="18"/>
+      <c r="Q526" s="18"/>
     </row>
     <row r="527" spans="1:17">
       <c r="A527" s="6">
@@ -28267,8 +28273,8 @@
       <c r="O527">
         <v>38.5</v>
       </c>
-      <c r="P527" s="29"/>
-      <c r="Q527" s="29"/>
+      <c r="P527" s="18"/>
+      <c r="Q527" s="18"/>
     </row>
     <row r="528" spans="1:17">
       <c r="A528" s="6">
@@ -28318,8 +28324,8 @@
       <c r="O528">
         <v>38</v>
       </c>
-      <c r="P528" s="29"/>
-      <c r="Q528" s="29"/>
+      <c r="P528" s="18"/>
+      <c r="Q528" s="18"/>
     </row>
     <row r="529" spans="1:17">
       <c r="A529" s="6">
@@ -28369,8 +28375,8 @@
       <c r="O529">
         <v>40.5</v>
       </c>
-      <c r="P529" s="29"/>
-      <c r="Q529" s="29"/>
+      <c r="P529" s="18"/>
+      <c r="Q529" s="18"/>
     </row>
     <row r="530" spans="1:17">
       <c r="A530" s="6">
@@ -28420,8 +28426,8 @@
       <c r="O530">
         <v>39.5</v>
       </c>
-      <c r="P530" s="29"/>
-      <c r="Q530" s="29"/>
+      <c r="P530" s="18"/>
+      <c r="Q530" s="18"/>
     </row>
     <row r="531" spans="1:17">
       <c r="A531" s="6">
@@ -28471,8 +28477,8 @@
       <c r="O531">
         <v>40.5</v>
       </c>
-      <c r="P531" s="29"/>
-      <c r="Q531" s="29"/>
+      <c r="P531" s="18"/>
+      <c r="Q531" s="18"/>
     </row>
     <row r="532" spans="1:17">
       <c r="A532" s="6">
@@ -28522,8 +28528,8 @@
       <c r="O532">
         <v>39.5</v>
       </c>
-      <c r="P532" s="29"/>
-      <c r="Q532" s="29"/>
+      <c r="P532" s="18"/>
+      <c r="Q532" s="18"/>
     </row>
     <row r="533" spans="1:17">
       <c r="A533" s="6">
@@ -28573,8 +28579,8 @@
       <c r="O533">
         <v>39.5</v>
       </c>
-      <c r="P533" s="29"/>
-      <c r="Q533" s="29"/>
+      <c r="P533" s="18"/>
+      <c r="Q533" s="18"/>
     </row>
     <row r="534" spans="1:17">
       <c r="A534" s="6">
@@ -28624,8 +28630,8 @@
       <c r="O534">
         <v>38</v>
       </c>
-      <c r="P534" s="29"/>
-      <c r="Q534" s="29"/>
+      <c r="P534" s="18"/>
+      <c r="Q534" s="18"/>
     </row>
     <row r="535" spans="1:17">
       <c r="A535" s="6">
@@ -28675,8 +28681,8 @@
       <c r="O535">
         <v>37</v>
       </c>
-      <c r="P535" s="29"/>
-      <c r="Q535" s="29"/>
+      <c r="P535" s="18"/>
+      <c r="Q535" s="18"/>
     </row>
     <row r="536" spans="1:17">
       <c r="A536" s="6">
@@ -28726,8 +28732,8 @@
       <c r="O536">
         <v>37.5</v>
       </c>
-      <c r="P536" s="29"/>
-      <c r="Q536" s="29"/>
+      <c r="P536" s="18"/>
+      <c r="Q536" s="18"/>
     </row>
     <row r="537" spans="1:17">
       <c r="A537" s="6">
@@ -28777,8 +28783,8 @@
       <c r="O537">
         <v>37.200000000000003</v>
       </c>
-      <c r="P537" s="29"/>
-      <c r="Q537" s="29"/>
+      <c r="P537" s="18"/>
+      <c r="Q537" s="18"/>
     </row>
     <row r="538" spans="1:17">
       <c r="A538" s="6">
@@ -28828,8 +28834,8 @@
       <c r="O538">
         <v>39.5</v>
       </c>
-      <c r="P538" s="29"/>
-      <c r="Q538" s="29"/>
+      <c r="P538" s="18"/>
+      <c r="Q538" s="18"/>
     </row>
     <row r="539" spans="1:17">
       <c r="A539" s="6">
@@ -28879,8 +28885,8 @@
       <c r="O539">
         <v>39</v>
       </c>
-      <c r="P539" s="29"/>
-      <c r="Q539" s="29"/>
+      <c r="P539" s="18"/>
+      <c r="Q539" s="18"/>
     </row>
     <row r="540" spans="1:17">
       <c r="A540" s="6">
@@ -28930,8 +28936,8 @@
       <c r="O540">
         <v>40</v>
       </c>
-      <c r="P540" s="29"/>
-      <c r="Q540" s="29"/>
+      <c r="P540" s="18"/>
+      <c r="Q540" s="18"/>
     </row>
     <row r="541" spans="1:17">
       <c r="A541" s="6">
@@ -28981,8 +28987,8 @@
       <c r="O541">
         <v>38.5</v>
       </c>
-      <c r="P541" s="29"/>
-      <c r="Q541" s="29"/>
+      <c r="P541" s="18"/>
+      <c r="Q541" s="18"/>
     </row>
     <row r="542" spans="1:17">
       <c r="A542" s="6">
@@ -29032,8 +29038,8 @@
       <c r="O542">
         <v>39</v>
       </c>
-      <c r="P542" s="29"/>
-      <c r="Q542" s="29"/>
+      <c r="P542" s="18"/>
+      <c r="Q542" s="18"/>
     </row>
     <row r="543" spans="1:17">
       <c r="A543" s="6">
@@ -29083,8 +29089,8 @@
       <c r="O543">
         <v>38</v>
       </c>
-      <c r="P543" s="29"/>
-      <c r="Q543" s="29"/>
+      <c r="P543" s="18"/>
+      <c r="Q543" s="18"/>
     </row>
     <row r="544" spans="1:17">
       <c r="A544" s="6">
@@ -29134,8 +29140,8 @@
       <c r="O544">
         <v>36</v>
       </c>
-      <c r="P544" s="29"/>
-      <c r="Q544" s="29"/>
+      <c r="P544" s="18"/>
+      <c r="Q544" s="18"/>
     </row>
     <row r="545" spans="1:17">
       <c r="A545" s="6">
@@ -29185,8 +29191,8 @@
       <c r="O545">
         <v>36</v>
       </c>
-      <c r="P545" s="29"/>
-      <c r="Q545" s="29"/>
+      <c r="P545" s="18"/>
+      <c r="Q545" s="18"/>
     </row>
     <row r="546" spans="1:17">
       <c r="A546" s="6">
@@ -29236,8 +29242,8 @@
       <c r="O546">
         <v>39</v>
       </c>
-      <c r="P546" s="29"/>
-      <c r="Q546" s="29"/>
+      <c r="P546" s="18"/>
+      <c r="Q546" s="18"/>
     </row>
     <row r="547" spans="1:17">
       <c r="A547" s="6">
@@ -29287,8 +29293,8 @@
       <c r="O547">
         <v>38.5</v>
       </c>
-      <c r="P547" s="29"/>
-      <c r="Q547" s="29"/>
+      <c r="P547" s="18"/>
+      <c r="Q547" s="18"/>
     </row>
     <row r="548" spans="1:17">
       <c r="A548" s="6">
@@ -29338,8 +29344,8 @@
       <c r="O548">
         <v>39</v>
       </c>
-      <c r="P548" s="29"/>
-      <c r="Q548" s="29"/>
+      <c r="P548" s="18"/>
+      <c r="Q548" s="18"/>
     </row>
     <row r="549" spans="1:17">
       <c r="A549" s="6">
@@ -29389,8 +29395,8 @@
       <c r="O549">
         <v>40.5</v>
       </c>
-      <c r="P549" s="29"/>
-      <c r="Q549" s="29"/>
+      <c r="P549" s="18"/>
+      <c r="Q549" s="18"/>
     </row>
     <row r="550" spans="1:17">
       <c r="A550" s="6">
@@ -29440,8 +29446,8 @@
       <c r="O550">
         <v>39</v>
       </c>
-      <c r="P550" s="29"/>
-      <c r="Q550" s="29"/>
+      <c r="P550" s="18"/>
+      <c r="Q550" s="18"/>
     </row>
     <row r="551" spans="1:17">
       <c r="A551" s="6">
@@ -29491,8 +29497,8 @@
       <c r="O551">
         <v>38.799999999999997</v>
       </c>
-      <c r="P551" s="29"/>
-      <c r="Q551" s="29"/>
+      <c r="P551" s="18"/>
+      <c r="Q551" s="18"/>
     </row>
     <row r="552" spans="1:17">
       <c r="A552" s="6">
@@ -29542,8 +29548,8 @@
       <c r="O552">
         <v>38</v>
       </c>
-      <c r="P552" s="29"/>
-      <c r="Q552" s="29"/>
+      <c r="P552" s="18"/>
+      <c r="Q552" s="18"/>
     </row>
     <row r="553" spans="1:17">
       <c r="A553" s="6">
@@ -29593,8 +29599,8 @@
       <c r="O553">
         <v>37.5</v>
       </c>
-      <c r="P553" s="29"/>
-      <c r="Q553" s="29"/>
+      <c r="P553" s="18"/>
+      <c r="Q553" s="18"/>
     </row>
     <row r="554" spans="1:17">
       <c r="A554" s="6">
@@ -29644,8 +29650,8 @@
       <c r="O554">
         <v>37</v>
       </c>
-      <c r="P554" s="29"/>
-      <c r="Q554" s="29"/>
+      <c r="P554" s="18"/>
+      <c r="Q554" s="18"/>
     </row>
     <row r="555" spans="1:17">
       <c r="A555" s="6">
@@ -29695,8 +29701,8 @@
       <c r="O555">
         <v>38.5</v>
       </c>
-      <c r="P555" s="29"/>
-      <c r="Q555" s="29"/>
+      <c r="P555" s="18"/>
+      <c r="Q555" s="18"/>
     </row>
     <row r="556" spans="1:17">
       <c r="A556" s="6">
@@ -29746,8 +29752,8 @@
       <c r="O556">
         <v>38.5</v>
       </c>
-      <c r="P556" s="29"/>
-      <c r="Q556" s="29"/>
+      <c r="P556" s="18"/>
+      <c r="Q556" s="18"/>
     </row>
     <row r="557" spans="1:17">
       <c r="A557" s="6">
@@ -29797,8 +29803,8 @@
       <c r="O557">
         <v>39.5</v>
       </c>
-      <c r="P557" s="29"/>
-      <c r="Q557" s="29"/>
+      <c r="P557" s="18"/>
+      <c r="Q557" s="18"/>
     </row>
     <row r="558" spans="1:17">
       <c r="A558" s="6">
@@ -29848,8 +29854,8 @@
       <c r="O558">
         <v>39.5</v>
       </c>
-      <c r="P558" s="29"/>
-      <c r="Q558" s="29"/>
+      <c r="P558" s="18"/>
+      <c r="Q558" s="18"/>
     </row>
     <row r="559" spans="1:17">
       <c r="A559" s="6">
@@ -29899,8 +29905,8 @@
       <c r="O559">
         <v>39</v>
       </c>
-      <c r="P559" s="29"/>
-      <c r="Q559" s="29"/>
+      <c r="P559" s="18"/>
+      <c r="Q559" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -29918,5 +29924,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>